--- a/frontend/Zakah-calc/public/templetes/balance_sheet_templete.xlsx
+++ b/frontend/Zakah-calc/public/templetes/balance_sheet_templete.xlsx
@@ -1,49 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anas\Desktop\New folder\zakah-calculator\frontend\Zakah-calc\public\templetes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdelrahman Ali\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACFCAA3-7330-4315-9E3B-B5722E19FB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E33A36-5CF0-45F6-A0C0-2F75A0B1A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="البيانات المالية" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>النقد</t>
-  </si>
-  <si>
-    <t>الأسهم/الاستثمارات</t>
-  </si>
-  <si>
-    <t>المخزون</t>
-  </si>
-  <si>
-    <t>المستحقات</t>
-  </si>
-  <si>
-    <t>الذمم الدائنة</t>
-  </si>
-  <si>
-    <t>المصاريف</t>
-  </si>
-  <si>
-    <t>قروض قصيرة الأجل</t>
-  </si>
-  <si>
-    <t>ديون طويلة الأجل (الجزء السنوي)</t>
+    <t>Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Accrued Expenses</t>
+  </si>
+  <si>
+    <t>Short Term Liability</t>
+  </si>
+  <si>
+    <t>Yearly Long Term Liabilities</t>
   </si>
 </sst>
 </file>
@@ -383,13 +388,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -415,6 +430,32 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
